--- a/data/league_data/spain/21/spain_shooting.xlsx
+++ b/data/league_data/spain/21/spain_shooting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D80165-3F0C-3B47-849A-FA51DBA1FA81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3A0523-C6C2-384E-8DD2-0FC1E92DEFB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2021" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2021" uniqueCount="604">
   <si>
     <t>Rk</t>
   </si>
@@ -1540,9 +1540,6 @@
     <t>Facundo Pellistri</t>
   </si>
   <si>
-    <t>Rodrigo</t>
-  </si>
-  <si>
     <t>Eden Hazard</t>
   </si>
   <si>
@@ -1585,9 +1582,6 @@
     <t>Kenan Kodro</t>
   </si>
   <si>
-    <t>Javi Martínez</t>
-  </si>
-  <si>
     <t>Okay Yokuşlu</t>
   </si>
   <si>
@@ -1823,6 +1817,21 @@
   </si>
   <si>
     <t>Eugeni Valderrama</t>
+  </si>
+  <si>
+    <t>Nacho Iglesias</t>
+  </si>
+  <si>
+    <t>Jota Peleteiro</t>
+  </si>
+  <si>
+    <t>Raúl García Escudero</t>
+  </si>
+  <si>
+    <t>Rodrigo Sanchez</t>
+  </si>
+  <si>
+    <t>Javi Martínez Calvo</t>
   </si>
 </sst>
 </file>
@@ -2689,8 +2698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1:Z1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A408" workbookViewId="0">
+      <selection activeCell="B423" sqref="B423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15277,7 +15286,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>248</v>
+        <v>599</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>33</v>
@@ -18100,7 +18109,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>288</v>
+        <v>601</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>33</v>
@@ -21831,7 +21840,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>339</v>
+        <v>600</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>33</v>
@@ -33693,7 +33702,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>506</v>
+        <v>602</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>33</v>
@@ -33768,7 +33777,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C409" s="3" t="s">
         <v>26</v>
@@ -33845,7 +33854,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C410" s="3" t="s">
         <v>33</v>
@@ -33922,7 +33931,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C411" s="3" t="s">
         <v>74</v>
@@ -33999,7 +34008,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C412" s="3" t="s">
         <v>115</v>
@@ -34066,10 +34075,10 @@
         <v>412</v>
       </c>
       <c r="B413" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="C413" s="3" t="s">
         <v>511</v>
-      </c>
-      <c r="C413" s="3" t="s">
-        <v>512</v>
       </c>
       <c r="D413" s="3" t="s">
         <v>57</v>
@@ -34143,7 +34152,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C414" s="3" t="s">
         <v>33</v>
@@ -34297,7 +34306,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>33</v>
@@ -34374,7 +34383,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C417" s="3" t="s">
         <v>357</v>
@@ -34451,7 +34460,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C418" s="3" t="s">
         <v>66</v>
@@ -34518,7 +34527,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C419" s="3" t="s">
         <v>66</v>
@@ -34595,7 +34604,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>33</v>
@@ -34672,7 +34681,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C421" s="3" t="s">
         <v>71</v>
@@ -34749,7 +34758,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C422" s="3" t="s">
         <v>487</v>
@@ -34826,7 +34835,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>521</v>
+        <v>603</v>
       </c>
       <c r="C423" s="3" t="s">
         <v>33</v>
@@ -34903,7 +34912,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C424" s="3" t="s">
         <v>357</v>
@@ -34978,7 +34987,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C425" s="3" t="s">
         <v>33</v>
@@ -35053,7 +35062,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>33</v>
@@ -35120,7 +35129,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>33</v>
@@ -35197,10 +35206,10 @@
         <v>427</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C428" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D428" s="3" t="s">
         <v>27</v>
@@ -35264,7 +35273,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>33</v>
@@ -35341,7 +35350,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C430" s="3" t="s">
         <v>33</v>
@@ -35493,7 +35502,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C432" s="3" t="s">
         <v>33</v>
@@ -35570,7 +35579,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>33</v>
@@ -35645,7 +35654,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C434" s="3" t="s">
         <v>33</v>
@@ -35712,7 +35721,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>33</v>
@@ -35779,7 +35788,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>33</v>
@@ -35856,7 +35865,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>33</v>
@@ -35933,7 +35942,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C438" s="3" t="s">
         <v>33</v>
@@ -36010,7 +36019,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>52</v>
@@ -36087,7 +36096,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C440" s="3" t="s">
         <v>461</v>
@@ -36154,7 +36163,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>33</v>
@@ -36231,7 +36240,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>33</v>
@@ -36308,7 +36317,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C443" s="3" t="s">
         <v>66</v>
@@ -36375,7 +36384,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C444" s="3" t="s">
         <v>33</v>
@@ -36452,7 +36461,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>33</v>
@@ -36519,7 +36528,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C446" s="3" t="s">
         <v>66</v>
@@ -36596,7 +36605,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C447" s="3" t="s">
         <v>33</v>
@@ -36671,7 +36680,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C448" s="3" t="s">
         <v>98</v>
@@ -36748,7 +36757,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C449" s="3" t="s">
         <v>33</v>
@@ -36815,7 +36824,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>69</v>
@@ -36890,7 +36899,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>33</v>
@@ -36957,7 +36966,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>33</v>
@@ -37034,7 +37043,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>66</v>
@@ -37188,7 +37197,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>33</v>
@@ -37263,7 +37272,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>33</v>
@@ -37330,7 +37339,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>33</v>
@@ -37407,7 +37416,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C458" s="3" t="s">
         <v>33</v>
@@ -37484,7 +37493,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C459" s="3" t="s">
         <v>33</v>
@@ -37561,7 +37570,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>33</v>
@@ -37638,7 +37647,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C461" s="3" t="s">
         <v>33</v>
@@ -37713,7 +37722,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>33</v>
@@ -37780,7 +37789,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>33</v>
@@ -37857,7 +37866,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C464" s="3" t="s">
         <v>69</v>
@@ -37924,7 +37933,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C465" s="3" t="s">
         <v>33</v>
@@ -38001,7 +38010,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C466" s="3" t="s">
         <v>33</v>
@@ -38076,7 +38085,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C467" s="3" t="s">
         <v>33</v>
@@ -38151,7 +38160,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C468" s="3" t="s">
         <v>33</v>
@@ -38212,7 +38221,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>33</v>
@@ -38287,10 +38296,10 @@
         <v>469</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C470" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D470" s="3" t="s">
         <v>119</v>
@@ -38362,7 +38371,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>33</v>
@@ -38437,7 +38446,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>33</v>
@@ -38512,7 +38521,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C473" s="3" t="s">
         <v>33</v>
@@ -38589,7 +38598,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>187</v>
@@ -38666,7 +38675,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C475" s="3" t="s">
         <v>66</v>
@@ -38743,10 +38752,10 @@
         <v>475</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C476" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D476" s="3" t="s">
         <v>67</v>
@@ -38820,7 +38829,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C477" s="3" t="s">
         <v>74</v>
@@ -38897,7 +38906,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C478" s="3" t="s">
         <v>361</v>
@@ -38972,7 +38981,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>33</v>
@@ -39047,13 +39056,13 @@
         <v>479</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C480" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D480" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E480" s="3" t="s">
         <v>46</v>
@@ -39114,7 +39123,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>33</v>
@@ -39181,7 +39190,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C482" s="3" t="s">
         <v>98</v>
@@ -39256,7 +39265,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C483" s="3" t="s">
         <v>33</v>
@@ -39323,7 +39332,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>98</v>
@@ -39390,7 +39399,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>66</v>
@@ -39457,7 +39466,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C486" s="3" t="s">
         <v>33</v>
@@ -39524,7 +39533,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C487" s="3" t="s">
         <v>33</v>
@@ -39591,7 +39600,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C488" s="3" t="s">
         <v>33</v>
@@ -39668,7 +39677,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C489" s="3" t="s">
         <v>66</v>
@@ -39745,7 +39754,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C490" s="3" t="s">
         <v>52</v>
@@ -39822,7 +39831,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C491" s="3" t="s">
         <v>33</v>
@@ -39889,7 +39898,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C492" s="3" t="s">
         <v>33</v>
@@ -39966,7 +39975,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C493" s="3" t="s">
         <v>33</v>
@@ -40043,10 +40052,10 @@
         <v>493</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C494" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D494" s="3" t="s">
         <v>42</v>
@@ -40118,7 +40127,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C495" s="3" t="s">
         <v>346</v>
@@ -40185,7 +40194,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C496" s="3" t="s">
         <v>33</v>
@@ -40260,7 +40269,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C497" s="3" t="s">
         <v>33</v>
@@ -40337,7 +40346,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C498" s="3" t="s">
         <v>33</v>
@@ -40414,7 +40423,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C499" s="3" t="s">
         <v>33</v>
@@ -40489,7 +40498,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C500" s="3" t="s">
         <v>33</v>

--- a/data/league_data/spain/21/spain_shooting.xlsx
+++ b/data/league_data/spain/21/spain_shooting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3A0523-C6C2-384E-8DD2-0FC1E92DEFB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6479DD9E-5469-FF40-8CA2-2A8136E88375}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -952,9 +952,6 @@
     <t>João Félix</t>
   </si>
   <si>
-    <t>Sergio Álvarez</t>
-  </si>
-  <si>
     <t>Martin Agirregabiria</t>
   </si>
   <si>
@@ -1832,6 +1829,9 @@
   </si>
   <si>
     <t>Javi Martínez Calvo</t>
+  </si>
+  <si>
+    <t>Sergio Álvarez Diaz</t>
   </si>
 </sst>
 </file>
@@ -2698,8 +2698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="B423" sqref="B423"/>
+    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="B224" sqref="B224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15286,7 +15286,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>33</v>
@@ -18109,7 +18109,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>33</v>
@@ -19700,7 +19700,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>310</v>
+        <v>603</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>33</v>
@@ -19777,7 +19777,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>33</v>
@@ -19852,7 +19852,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>33</v>
@@ -19929,7 +19929,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>66</v>
@@ -20006,7 +20006,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>33</v>
@@ -20083,7 +20083,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>33</v>
@@ -20160,7 +20160,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>33</v>
@@ -20237,7 +20237,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>33</v>
@@ -20314,7 +20314,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C232" s="3" t="s">
         <v>264</v>
@@ -20391,10 +20391,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C233" s="3" t="s">
         <v>319</v>
-      </c>
-      <c r="C233" s="3" t="s">
-        <v>320</v>
       </c>
       <c r="D233" s="3" t="s">
         <v>67</v>
@@ -20468,7 +20468,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>33</v>
@@ -20545,7 +20545,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C235" s="3" t="s">
         <v>74</v>
@@ -20622,7 +20622,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>33</v>
@@ -20699,7 +20699,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C237" s="3" t="s">
         <v>69</v>
@@ -20776,7 +20776,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C238" s="3" t="s">
         <v>124</v>
@@ -20853,7 +20853,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C239" s="3" t="s">
         <v>71</v>
@@ -20930,7 +20930,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>33</v>
@@ -21005,7 +21005,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C241" s="3" t="s">
         <v>33</v>
@@ -21082,7 +21082,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C242" s="3" t="s">
         <v>33</v>
@@ -21149,7 +21149,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>33</v>
@@ -21226,7 +21226,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>33</v>
@@ -21303,7 +21303,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>33</v>
@@ -21380,7 +21380,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>33</v>
@@ -21455,7 +21455,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>33</v>
@@ -21532,7 +21532,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>33</v>
@@ -21609,7 +21609,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C249" s="3" t="s">
         <v>33</v>
@@ -21686,7 +21686,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>33</v>
@@ -21763,7 +21763,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C251" s="3" t="s">
         <v>33</v>
@@ -21840,7 +21840,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>33</v>
@@ -21917,7 +21917,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>33</v>
@@ -21994,7 +21994,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>33</v>
@@ -22071,7 +22071,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>33</v>
@@ -22148,7 +22148,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>81</v>
@@ -22225,7 +22225,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>33</v>
@@ -22302,10 +22302,10 @@
         <v>257</v>
       </c>
       <c r="B258" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C258" s="3" t="s">
         <v>345</v>
-      </c>
-      <c r="C258" s="3" t="s">
-        <v>346</v>
       </c>
       <c r="D258" s="3" t="s">
         <v>119</v>
@@ -22379,7 +22379,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>69</v>
@@ -22456,7 +22456,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>33</v>
@@ -22533,7 +22533,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>33</v>
@@ -22610,7 +22610,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>33</v>
@@ -22687,7 +22687,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>33</v>
@@ -22762,7 +22762,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>74</v>
@@ -22839,7 +22839,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>194</v>
@@ -22916,7 +22916,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>74</v>
@@ -22991,7 +22991,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>171</v>
@@ -23068,10 +23068,10 @@
         <v>267</v>
       </c>
       <c r="B268" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C268" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="C268" s="3" t="s">
-        <v>357</v>
       </c>
       <c r="D268" s="3" t="s">
         <v>57</v>
@@ -23145,7 +23145,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>33</v>
@@ -23222,7 +23222,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>33</v>
@@ -23297,10 +23297,10 @@
         <v>270</v>
       </c>
       <c r="B271" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C271" s="3" t="s">
         <v>360</v>
-      </c>
-      <c r="C271" s="3" t="s">
-        <v>361</v>
       </c>
       <c r="D271" s="3" t="s">
         <v>45</v>
@@ -23372,7 +23372,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>33</v>
@@ -23449,7 +23449,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>33</v>
@@ -23526,7 +23526,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>33</v>
@@ -23603,7 +23603,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>33</v>
@@ -23680,7 +23680,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>33</v>
@@ -23757,7 +23757,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>33</v>
@@ -23834,7 +23834,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>48</v>
@@ -23911,10 +23911,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C279" s="3" t="s">
         <v>369</v>
-      </c>
-      <c r="C279" s="3" t="s">
-        <v>370</v>
       </c>
       <c r="D279" s="3" t="s">
         <v>67</v>
@@ -24065,7 +24065,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>33</v>
@@ -24142,7 +24142,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C282" s="3" t="s">
         <v>33</v>
@@ -24217,7 +24217,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>66</v>
@@ -24294,7 +24294,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>98</v>
@@ -24371,10 +24371,10 @@
         <v>284</v>
       </c>
       <c r="B285" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C285" s="3" t="s">
         <v>375</v>
-      </c>
-      <c r="C285" s="3" t="s">
-        <v>376</v>
       </c>
       <c r="D285" s="3" t="s">
         <v>45</v>
@@ -24448,7 +24448,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>33</v>
@@ -24525,7 +24525,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>124</v>
@@ -24602,7 +24602,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>33</v>
@@ -24679,7 +24679,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C289" s="3" t="s">
         <v>69</v>
@@ -24756,7 +24756,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>33</v>
@@ -24833,7 +24833,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>33</v>
@@ -24910,7 +24910,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C292" s="3" t="s">
         <v>78</v>
@@ -24987,7 +24987,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>71</v>
@@ -25064,10 +25064,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C294" s="3" t="s">
         <v>385</v>
-      </c>
-      <c r="C294" s="3" t="s">
-        <v>386</v>
       </c>
       <c r="D294" s="3" t="s">
         <v>45</v>
@@ -25141,7 +25141,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>66</v>
@@ -25216,7 +25216,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>33</v>
@@ -25283,7 +25283,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>33</v>
@@ -25360,7 +25360,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C298" s="3" t="s">
         <v>66</v>
@@ -25437,7 +25437,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C299" s="3" t="s">
         <v>33</v>
@@ -25512,7 +25512,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C300" s="3" t="s">
         <v>71</v>
@@ -25589,7 +25589,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>98</v>
@@ -25664,7 +25664,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C302" s="3" t="s">
         <v>33</v>
@@ -25741,7 +25741,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>71</v>
@@ -25818,7 +25818,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C304" s="3" t="s">
         <v>276</v>
@@ -25895,7 +25895,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C305" s="3" t="s">
         <v>276</v>
@@ -25972,7 +25972,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>52</v>
@@ -26047,7 +26047,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C307" s="3" t="s">
         <v>33</v>
@@ -26124,7 +26124,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>33</v>
@@ -26201,7 +26201,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>33</v>
@@ -26278,7 +26278,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>66</v>
@@ -26355,7 +26355,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>33</v>
@@ -26432,10 +26432,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C312" s="3" t="s">
         <v>404</v>
-      </c>
-      <c r="C312" s="3" t="s">
-        <v>405</v>
       </c>
       <c r="D312" s="3" t="s">
         <v>42</v>
@@ -26509,7 +26509,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>98</v>
@@ -26586,7 +26586,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>69</v>
@@ -26663,7 +26663,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>33</v>
@@ -26738,7 +26738,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C316" s="3" t="s">
         <v>71</v>
@@ -26813,7 +26813,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C317" s="3" t="s">
         <v>52</v>
@@ -26890,7 +26890,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>33</v>
@@ -26967,7 +26967,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>26</v>
@@ -27044,7 +27044,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>66</v>
@@ -27121,7 +27121,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>33</v>
@@ -27198,7 +27198,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>71</v>
@@ -27275,7 +27275,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>33</v>
@@ -27352,7 +27352,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>33</v>
@@ -27429,7 +27429,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>33</v>
@@ -27506,7 +27506,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>33</v>
@@ -27583,7 +27583,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>33</v>
@@ -27660,7 +27660,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>33</v>
@@ -27737,7 +27737,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C329" s="3" t="s">
         <v>33</v>
@@ -27814,10 +27814,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="C330" s="3" t="s">
         <v>423</v>
-      </c>
-      <c r="C330" s="3" t="s">
-        <v>424</v>
       </c>
       <c r="D330" s="3" t="s">
         <v>57</v>
@@ -27891,7 +27891,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C331" s="3" t="s">
         <v>33</v>
@@ -27966,7 +27966,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>66</v>
@@ -28043,7 +28043,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>33</v>
@@ -28120,7 +28120,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>33</v>
@@ -28195,7 +28195,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C335" s="3" t="s">
         <v>33</v>
@@ -28270,7 +28270,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C336" s="3" t="s">
         <v>52</v>
@@ -28347,7 +28347,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C337" s="3" t="s">
         <v>33</v>
@@ -28424,7 +28424,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C338" s="3" t="s">
         <v>33</v>
@@ -28499,7 +28499,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C339" s="3" t="s">
         <v>81</v>
@@ -28576,7 +28576,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C340" s="3" t="s">
         <v>48</v>
@@ -28643,7 +28643,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C341" s="3" t="s">
         <v>33</v>
@@ -28710,7 +28710,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C342" s="3" t="s">
         <v>33</v>
@@ -28785,7 +28785,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C343" s="3" t="s">
         <v>71</v>
@@ -28862,7 +28862,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>33</v>
@@ -28939,7 +28939,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C345" s="3" t="s">
         <v>245</v>
@@ -29016,7 +29016,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C346" s="3" t="s">
         <v>171</v>
@@ -29093,7 +29093,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>52</v>
@@ -29170,7 +29170,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>33</v>
@@ -29247,7 +29247,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C349" s="3" t="s">
         <v>81</v>
@@ -29324,7 +29324,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C350" s="3" t="s">
         <v>33</v>
@@ -29399,7 +29399,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>33</v>
@@ -29474,7 +29474,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C352" s="3" t="s">
         <v>33</v>
@@ -29551,7 +29551,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>33</v>
@@ -29628,7 +29628,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>33</v>
@@ -29705,7 +29705,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C355" s="3" t="s">
         <v>33</v>
@@ -29782,7 +29782,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C356" s="3" t="s">
         <v>33</v>
@@ -29859,7 +29859,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C357" s="3" t="s">
         <v>33</v>
@@ -29936,7 +29936,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C358" s="3" t="s">
         <v>86</v>
@@ -30011,7 +30011,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C359" s="3" t="s">
         <v>33</v>
@@ -30088,7 +30088,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C360" s="3" t="s">
         <v>276</v>
@@ -30165,7 +30165,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C361" s="3" t="s">
         <v>33</v>
@@ -30242,7 +30242,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>33</v>
@@ -30319,10 +30319,10 @@
         <v>362</v>
       </c>
       <c r="B363" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C363" s="3" t="s">
         <v>457</v>
-      </c>
-      <c r="C363" s="3" t="s">
-        <v>458</v>
       </c>
       <c r="D363" s="3" t="s">
         <v>42</v>
@@ -30394,7 +30394,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C364" s="3" t="s">
         <v>124</v>
@@ -30471,10 +30471,10 @@
         <v>364</v>
       </c>
       <c r="B365" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C365" s="3" t="s">
         <v>460</v>
-      </c>
-      <c r="C365" s="3" t="s">
-        <v>461</v>
       </c>
       <c r="D365" s="3" t="s">
         <v>42</v>
@@ -30546,7 +30546,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C366" s="3" t="s">
         <v>33</v>
@@ -30623,7 +30623,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>33</v>
@@ -30700,7 +30700,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C368" s="3" t="s">
         <v>33</v>
@@ -30777,7 +30777,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>124</v>
@@ -30844,7 +30844,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C370" s="3" t="s">
         <v>69</v>
@@ -30919,7 +30919,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>66</v>
@@ -30996,7 +30996,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>33</v>
@@ -31073,7 +31073,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>66</v>
@@ -31150,7 +31150,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>33</v>
@@ -31227,7 +31227,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>33</v>
@@ -31302,7 +31302,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C376" s="3" t="s">
         <v>33</v>
@@ -31369,7 +31369,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>66</v>
@@ -31436,7 +31436,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C378" s="3" t="s">
         <v>33</v>
@@ -31511,7 +31511,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C379" s="3" t="s">
         <v>98</v>
@@ -31588,7 +31588,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C380" s="3" t="s">
         <v>71</v>
@@ -31665,7 +31665,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>71</v>
@@ -31740,7 +31740,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C382" s="3" t="s">
         <v>171</v>
@@ -31817,7 +31817,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C383" s="3" t="s">
         <v>98</v>
@@ -31880,7 +31880,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C384" s="3" t="s">
         <v>71</v>
@@ -31957,7 +31957,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>48</v>
@@ -32032,7 +32032,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>33</v>
@@ -32109,7 +32109,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>33</v>
@@ -32186,7 +32186,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>69</v>
@@ -32263,7 +32263,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>33</v>
@@ -32340,7 +32340,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C390" s="3" t="s">
         <v>71</v>
@@ -32407,10 +32407,10 @@
         <v>390</v>
       </c>
       <c r="B391" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C391" s="3" t="s">
         <v>486</v>
-      </c>
-      <c r="C391" s="3" t="s">
-        <v>487</v>
       </c>
       <c r="D391" s="3" t="s">
         <v>42</v>
@@ -32484,7 +32484,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>69</v>
@@ -32561,10 +32561,10 @@
         <v>392</v>
       </c>
       <c r="B393" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="C393" s="3" t="s">
         <v>489</v>
-      </c>
-      <c r="C393" s="3" t="s">
-        <v>490</v>
       </c>
       <c r="D393" s="3" t="s">
         <v>119</v>
@@ -32638,10 +32638,10 @@
         <v>393</v>
       </c>
       <c r="B394" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="C394" s="3" t="s">
         <v>491</v>
-      </c>
-      <c r="C394" s="3" t="s">
-        <v>492</v>
       </c>
       <c r="D394" s="3" t="s">
         <v>45</v>
@@ -32715,7 +32715,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>33</v>
@@ -32792,7 +32792,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>33</v>
@@ -32869,7 +32869,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C397" s="3" t="s">
         <v>74</v>
@@ -32936,7 +32936,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C398" s="3" t="s">
         <v>33</v>
@@ -33013,7 +33013,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C399" s="3" t="s">
         <v>33</v>
@@ -33088,7 +33088,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>33</v>
@@ -33165,7 +33165,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>33</v>
@@ -33242,7 +33242,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>33</v>
@@ -33319,7 +33319,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C403" s="3" t="s">
         <v>33</v>
@@ -33394,7 +33394,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C404" s="3" t="s">
         <v>33</v>
@@ -33471,7 +33471,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C405" s="3" t="s">
         <v>33</v>
@@ -33548,7 +33548,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C406" s="3" t="s">
         <v>33</v>
@@ -33625,7 +33625,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C407" s="3" t="s">
         <v>74</v>
@@ -33702,7 +33702,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>33</v>
@@ -33777,7 +33777,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C409" s="3" t="s">
         <v>26</v>
@@ -33854,7 +33854,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C410" s="3" t="s">
         <v>33</v>
@@ -33931,7 +33931,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C411" s="3" t="s">
         <v>74</v>
@@ -34008,7 +34008,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C412" s="3" t="s">
         <v>115</v>
@@ -34075,10 +34075,10 @@
         <v>412</v>
       </c>
       <c r="B413" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C413" s="3" t="s">
         <v>510</v>
-      </c>
-      <c r="C413" s="3" t="s">
-        <v>511</v>
       </c>
       <c r="D413" s="3" t="s">
         <v>57</v>
@@ -34152,7 +34152,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C414" s="3" t="s">
         <v>33</v>
@@ -34306,7 +34306,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>33</v>
@@ -34383,10 +34383,10 @@
         <v>416</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D417" s="3" t="s">
         <v>67</v>
@@ -34460,7 +34460,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C418" s="3" t="s">
         <v>66</v>
@@ -34527,7 +34527,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C419" s="3" t="s">
         <v>66</v>
@@ -34604,7 +34604,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>33</v>
@@ -34681,7 +34681,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C421" s="3" t="s">
         <v>71</v>
@@ -34758,10 +34758,10 @@
         <v>421</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C422" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D422" s="3" t="s">
         <v>67</v>
@@ -34835,7 +34835,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C423" s="3" t="s">
         <v>33</v>
@@ -34912,10 +34912,10 @@
         <v>423</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C424" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D424" s="3" t="s">
         <v>42</v>
@@ -34987,7 +34987,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C425" s="3" t="s">
         <v>33</v>
@@ -35062,7 +35062,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>33</v>
@@ -35129,7 +35129,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>33</v>
@@ -35206,10 +35206,10 @@
         <v>427</v>
       </c>
       <c r="B428" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="C428" s="3" t="s">
         <v>524</v>
-      </c>
-      <c r="C428" s="3" t="s">
-        <v>525</v>
       </c>
       <c r="D428" s="3" t="s">
         <v>27</v>
@@ -35273,7 +35273,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>33</v>
@@ -35350,7 +35350,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C430" s="3" t="s">
         <v>33</v>
@@ -35425,10 +35425,10 @@
         <v>430</v>
       </c>
       <c r="B431" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="C431" s="3" t="s">
         <v>489</v>
-      </c>
-      <c r="C431" s="3" t="s">
-        <v>490</v>
       </c>
       <c r="D431" s="3" t="s">
         <v>42</v>
@@ -35502,7 +35502,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C432" s="3" t="s">
         <v>33</v>
@@ -35579,7 +35579,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>33</v>
@@ -35654,7 +35654,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C434" s="3" t="s">
         <v>33</v>
@@ -35721,7 +35721,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>33</v>
@@ -35788,7 +35788,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>33</v>
@@ -35865,7 +35865,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>33</v>
@@ -35942,7 +35942,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C438" s="3" t="s">
         <v>33</v>
@@ -36019,7 +36019,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>52</v>
@@ -36096,10 +36096,10 @@
         <v>439</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D440" s="3" t="s">
         <v>42</v>
@@ -36163,7 +36163,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>33</v>
@@ -36240,7 +36240,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>33</v>
@@ -36317,7 +36317,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C443" s="3" t="s">
         <v>66</v>
@@ -36384,7 +36384,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C444" s="3" t="s">
         <v>33</v>
@@ -36461,7 +36461,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>33</v>
@@ -36528,7 +36528,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C446" s="3" t="s">
         <v>66</v>
@@ -36605,7 +36605,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C447" s="3" t="s">
         <v>33</v>
@@ -36680,7 +36680,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C448" s="3" t="s">
         <v>98</v>
@@ -36757,7 +36757,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C449" s="3" t="s">
         <v>33</v>
@@ -36824,7 +36824,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>69</v>
@@ -36899,7 +36899,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>33</v>
@@ -36966,7 +36966,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>33</v>
@@ -37043,7 +37043,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>66</v>
@@ -37120,7 +37120,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C454" s="3" t="s">
         <v>276</v>
@@ -37197,7 +37197,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>33</v>
@@ -37272,7 +37272,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>33</v>
@@ -37339,7 +37339,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>33</v>
@@ -37416,7 +37416,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C458" s="3" t="s">
         <v>33</v>
@@ -37493,7 +37493,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C459" s="3" t="s">
         <v>33</v>
@@ -37570,7 +37570,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>33</v>
@@ -37647,7 +37647,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C461" s="3" t="s">
         <v>33</v>
@@ -37722,7 +37722,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>33</v>
@@ -37789,7 +37789,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>33</v>
@@ -37866,7 +37866,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C464" s="3" t="s">
         <v>69</v>
@@ -37933,7 +37933,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C465" s="3" t="s">
         <v>33</v>
@@ -38010,7 +38010,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C466" s="3" t="s">
         <v>33</v>
@@ -38085,7 +38085,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C467" s="3" t="s">
         <v>33</v>
@@ -38160,7 +38160,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C468" s="3" t="s">
         <v>33</v>
@@ -38221,7 +38221,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>33</v>
@@ -38296,10 +38296,10 @@
         <v>469</v>
       </c>
       <c r="B470" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="C470" s="3" t="s">
         <v>565</v>
-      </c>
-      <c r="C470" s="3" t="s">
-        <v>566</v>
       </c>
       <c r="D470" s="3" t="s">
         <v>119</v>
@@ -38371,7 +38371,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>33</v>
@@ -38446,7 +38446,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>33</v>
@@ -38521,7 +38521,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C473" s="3" t="s">
         <v>33</v>
@@ -38598,7 +38598,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>187</v>
@@ -38675,7 +38675,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C475" s="3" t="s">
         <v>66</v>
@@ -38752,10 +38752,10 @@
         <v>475</v>
       </c>
       <c r="B476" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="C476" s="3" t="s">
         <v>572</v>
-      </c>
-      <c r="C476" s="3" t="s">
-        <v>573</v>
       </c>
       <c r="D476" s="3" t="s">
         <v>67</v>
@@ -38829,7 +38829,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C477" s="3" t="s">
         <v>74</v>
@@ -38906,10 +38906,10 @@
         <v>477</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C478" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D478" s="3" t="s">
         <v>42</v>
@@ -38981,7 +38981,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>33</v>
@@ -39056,13 +39056,13 @@
         <v>479</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C480" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D480" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E480" s="3" t="s">
         <v>46</v>
@@ -39123,7 +39123,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>33</v>
@@ -39190,7 +39190,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C482" s="3" t="s">
         <v>98</v>
@@ -39265,7 +39265,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C483" s="3" t="s">
         <v>33</v>
@@ -39332,7 +39332,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>98</v>
@@ -39399,7 +39399,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>66</v>
@@ -39466,7 +39466,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C486" s="3" t="s">
         <v>33</v>
@@ -39533,7 +39533,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C487" s="3" t="s">
         <v>33</v>
@@ -39600,7 +39600,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C488" s="3" t="s">
         <v>33</v>
@@ -39677,7 +39677,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C489" s="3" t="s">
         <v>66</v>
@@ -39754,7 +39754,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C490" s="3" t="s">
         <v>52</v>
@@ -39831,7 +39831,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C491" s="3" t="s">
         <v>33</v>
@@ -39898,7 +39898,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C492" s="3" t="s">
         <v>33</v>
@@ -39975,7 +39975,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C493" s="3" t="s">
         <v>33</v>
@@ -40052,10 +40052,10 @@
         <v>493</v>
       </c>
       <c r="B494" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="C494" s="3" t="s">
         <v>591</v>
-      </c>
-      <c r="C494" s="3" t="s">
-        <v>592</v>
       </c>
       <c r="D494" s="3" t="s">
         <v>42</v>
@@ -40127,10 +40127,10 @@
         <v>494</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C495" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D495" s="3" t="s">
         <v>119</v>
@@ -40194,7 +40194,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C496" s="3" t="s">
         <v>33</v>
@@ -40269,7 +40269,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C497" s="3" t="s">
         <v>33</v>
@@ -40346,7 +40346,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C498" s="3" t="s">
         <v>33</v>
@@ -40423,7 +40423,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C499" s="3" t="s">
         <v>33</v>
@@ -40498,7 +40498,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C500" s="3" t="s">
         <v>33</v>

--- a/data/league_data/spain/21/spain_shooting.xlsx
+++ b/data/league_data/spain/21/spain_shooting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6479DD9E-5469-FF40-8CA2-2A8136E88375}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F59B73-2198-9D47-AA29-311C7A0CE5BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -232,9 +232,6 @@
     <t>fr FRA</t>
   </si>
   <si>
-    <t>Emerson</t>
-  </si>
-  <si>
     <t>br BRA</t>
   </si>
   <si>
@@ -1832,6 +1829,9 @@
   </si>
   <si>
     <t>Sergio Álvarez Diaz</t>
+  </si>
+  <si>
+    <t>Emerson Royal</t>
   </si>
 </sst>
 </file>
@@ -2698,8 +2698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="B224" sqref="B224"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4290,16 +4290,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F22" s="3">
         <v>21</v>
@@ -4367,10 +4367,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>42</v>
@@ -4444,7 +4444,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>69</v>
@@ -4453,7 +4453,7 @@
         <v>45</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F24" s="3">
         <v>21</v>
@@ -4521,16 +4521,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F25" s="3">
         <v>31</v>
@@ -4598,16 +4598,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F26" s="3">
         <v>29</v>
@@ -4675,7 +4675,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>33</v>
@@ -4752,7 +4752,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>33</v>
@@ -4819,7 +4819,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>33</v>
@@ -4896,10 +4896,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>45</v>
@@ -4973,10 +4973,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>45</v>
@@ -5048,7 +5048,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>33</v>
@@ -5057,7 +5057,7 @@
         <v>45</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F32" s="3">
         <v>31</v>
@@ -5125,7 +5125,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>69</v>
@@ -5202,10 +5202,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>42</v>
@@ -5279,7 +5279,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>33</v>
@@ -5356,7 +5356,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>66</v>
@@ -5365,7 +5365,7 @@
         <v>27</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F36" s="3">
         <v>27</v>
@@ -5423,7 +5423,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>33</v>
@@ -5500,16 +5500,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F38" s="3">
         <v>26</v>
@@ -5567,7 +5567,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>33</v>
@@ -5576,7 +5576,7 @@
         <v>57</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F39" s="3">
         <v>32</v>
@@ -5644,7 +5644,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>33</v>
@@ -5653,7 +5653,7 @@
         <v>42</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F40" s="3">
         <v>23</v>
@@ -5721,7 +5721,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>66</v>
@@ -5730,7 +5730,7 @@
         <v>42</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F41" s="3">
         <v>26</v>
@@ -5798,7 +5798,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>33</v>
@@ -5807,7 +5807,7 @@
         <v>42</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F42" s="3">
         <v>26</v>
@@ -5875,7 +5875,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>33</v>
@@ -5884,7 +5884,7 @@
         <v>45</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F43" s="3">
         <v>25</v>
@@ -5952,7 +5952,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>33</v>
@@ -5961,7 +5961,7 @@
         <v>45</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F44" s="3">
         <v>34</v>
@@ -6029,7 +6029,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>33</v>
@@ -6106,16 +6106,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F46" s="3">
         <v>27</v>
@@ -6183,10 +6183,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>27</v>
@@ -6258,7 +6258,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>33</v>
@@ -6267,7 +6267,7 @@
         <v>45</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F48" s="3">
         <v>28</v>
@@ -6335,7 +6335,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>69</v>
@@ -6412,10 +6412,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>42</v>
@@ -6489,7 +6489,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>33</v>
@@ -6498,7 +6498,7 @@
         <v>42</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F51" s="3">
         <v>23</v>
@@ -6566,7 +6566,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>52</v>
@@ -6643,13 +6643,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>46</v>
@@ -6720,16 +6720,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F54" s="3">
         <v>29</v>
@@ -6797,7 +6797,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>69</v>
@@ -6874,7 +6874,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>33</v>
@@ -6883,7 +6883,7 @@
         <v>27</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F56" s="3">
         <v>28</v>
@@ -6941,16 +6941,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>28</v>
@@ -7018,16 +7018,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
         <v>25</v>
@@ -7095,7 +7095,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>66</v>
@@ -7104,7 +7104,7 @@
         <v>57</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F59" s="3">
         <v>24</v>
@@ -7172,16 +7172,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F60" s="3">
         <v>23</v>
@@ -7249,16 +7249,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F61" s="3">
         <v>23</v>
@@ -7326,7 +7326,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>33</v>
@@ -7403,7 +7403,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>69</v>
@@ -7412,7 +7412,7 @@
         <v>45</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F63" s="3">
         <v>27</v>
@@ -7480,7 +7480,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>33</v>
@@ -7557,7 +7557,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>66</v>
@@ -7566,7 +7566,7 @@
         <v>42</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F65" s="3">
         <v>30</v>
@@ -7632,16 +7632,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F66" s="3">
         <v>26</v>
@@ -7709,10 +7709,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>45</v>
@@ -7786,7 +7786,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>33</v>
@@ -7795,7 +7795,7 @@
         <v>45</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F68" s="3">
         <v>33</v>
@@ -7863,7 +7863,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>33</v>
@@ -7940,7 +7940,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>66</v>
@@ -7949,7 +7949,7 @@
         <v>57</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F70" s="3">
         <v>26</v>
@@ -8017,16 +8017,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F71" s="3">
         <v>27</v>
@@ -8094,16 +8094,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F72" s="3">
         <v>27</v>
@@ -8171,7 +8171,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>33</v>
@@ -8180,7 +8180,7 @@
         <v>27</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F73" s="3">
         <v>29</v>
@@ -8238,10 +8238,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>45</v>
@@ -8315,16 +8315,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F75" s="3">
         <v>28</v>
@@ -8392,7 +8392,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>69</v>
@@ -8469,7 +8469,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>33</v>
@@ -8478,7 +8478,7 @@
         <v>45</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F77" s="3">
         <v>29</v>
@@ -8546,16 +8546,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F78" s="3">
         <v>33</v>
@@ -8623,7 +8623,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>33</v>
@@ -8632,7 +8632,7 @@
         <v>45</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F79" s="3">
         <v>27</v>
@@ -8700,7 +8700,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>33</v>
@@ -8777,7 +8777,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>33</v>
@@ -8854,13 +8854,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>40</v>
@@ -8931,7 +8931,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>33</v>
@@ -9008,16 +9008,16 @@
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F84" s="3">
         <v>33</v>
@@ -9085,13 +9085,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>59</v>
@@ -9162,7 +9162,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>33</v>
@@ -9239,7 +9239,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>33</v>
@@ -9316,7 +9316,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>33</v>
@@ -9325,7 +9325,7 @@
         <v>27</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F88" s="3">
         <v>29</v>
@@ -9383,7 +9383,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>33</v>
@@ -9460,16 +9460,16 @@
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F90" s="3">
         <v>29</v>
@@ -9537,7 +9537,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>33</v>
@@ -9604,10 +9604,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>57</v>
@@ -9681,16 +9681,16 @@
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F93" s="3">
         <v>29</v>
@@ -9758,7 +9758,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>66</v>
@@ -9835,7 +9835,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>69</v>
@@ -9912,10 +9912,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>45</v>
@@ -9989,7 +9989,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>33</v>
@@ -10066,7 +10066,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>33</v>
@@ -10075,7 +10075,7 @@
         <v>67</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F98" s="3">
         <v>33</v>
@@ -10143,16 +10143,16 @@
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F99" s="3">
         <v>28</v>
@@ -10218,10 +10218,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>45</v>
@@ -10295,7 +10295,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>33</v>
@@ -10304,7 +10304,7 @@
         <v>57</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F101" s="3">
         <v>24</v>
@@ -10372,7 +10372,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>33</v>
@@ -10449,7 +10449,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>33</v>
@@ -10526,7 +10526,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>33</v>
@@ -10535,7 +10535,7 @@
         <v>42</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F104" s="3">
         <v>26</v>
@@ -10603,7 +10603,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>66</v>
@@ -10680,7 +10680,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>33</v>
@@ -10689,7 +10689,7 @@
         <v>49</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F106" s="3">
         <v>30</v>
@@ -10757,16 +10757,16 @@
         <v>106</v>
       </c>
       <c r="B107" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C107" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>180</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F107" s="3">
         <v>28</v>
@@ -10834,7 +10834,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>33</v>
@@ -10911,7 +10911,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>33</v>
@@ -10988,7 +10988,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>33</v>
@@ -11065,16 +11065,16 @@
         <v>110</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F111" s="3">
         <v>25</v>
@@ -11142,7 +11142,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>33</v>
@@ -11219,10 +11219,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>57</v>
@@ -11296,16 +11296,16 @@
         <v>113</v>
       </c>
       <c r="B114" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>189</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F114" s="3">
         <v>24</v>
@@ -11373,7 +11373,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>66</v>
@@ -11382,7 +11382,7 @@
         <v>45</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F115" s="3">
         <v>28</v>
@@ -11450,10 +11450,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C116" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>42</v>
@@ -11527,10 +11527,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C117" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>194</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>49</v>
@@ -11604,16 +11604,16 @@
         <v>117</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F118" s="3">
         <v>23</v>
@@ -11681,16 +11681,16 @@
         <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C119" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>197</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F119" s="3">
         <v>22</v>
@@ -11758,16 +11758,16 @@
         <v>119</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F120" s="3">
         <v>26</v>
@@ -11835,16 +11835,16 @@
         <v>120</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F121" s="3">
         <v>23</v>
@@ -11912,13 +11912,13 @@
         <v>121</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>38</v>
@@ -11989,13 +11989,13 @@
         <v>122</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>53</v>
@@ -12066,7 +12066,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>33</v>
@@ -12075,7 +12075,7 @@
         <v>45</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F124" s="3">
         <v>30</v>
@@ -12143,7 +12143,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>33</v>
@@ -12152,7 +12152,7 @@
         <v>45</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F125" s="3">
         <v>30</v>
@@ -12220,7 +12220,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>33</v>
@@ -12229,7 +12229,7 @@
         <v>27</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F126" s="3">
         <v>31</v>
@@ -12287,7 +12287,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>33</v>
@@ -12296,7 +12296,7 @@
         <v>45</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F127" s="3">
         <v>33</v>
@@ -12362,16 +12362,16 @@
         <v>127</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F128" s="3">
         <v>32</v>
@@ -12439,7 +12439,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>33</v>
@@ -12448,7 +12448,7 @@
         <v>57</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F129" s="3">
         <v>26</v>
@@ -12516,7 +12516,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>69</v>
@@ -12593,7 +12593,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>33</v>
@@ -12602,7 +12602,7 @@
         <v>57</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F131" s="3">
         <v>29</v>
@@ -12670,7 +12670,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>33</v>
@@ -12679,7 +12679,7 @@
         <v>57</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F132" s="3">
         <v>34</v>
@@ -12747,16 +12747,16 @@
         <v>132</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F133" s="3">
         <v>23</v>
@@ -12824,7 +12824,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>33</v>
@@ -12901,13 +12901,13 @@
         <v>134</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>53</v>
@@ -12978,7 +12978,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>52</v>
@@ -12987,7 +12987,7 @@
         <v>42</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F136" s="3">
         <v>22</v>
@@ -13055,7 +13055,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>33</v>
@@ -13132,13 +13132,13 @@
         <v>137</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>31</v>
@@ -13209,7 +13209,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>33</v>
@@ -13218,7 +13218,7 @@
         <v>42</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F139" s="3">
         <v>29</v>
@@ -13286,7 +13286,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>33</v>
@@ -13295,7 +13295,7 @@
         <v>67</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F140" s="3">
         <v>28</v>
@@ -13363,7 +13363,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>33</v>
@@ -13372,7 +13372,7 @@
         <v>45</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F141" s="3">
         <v>31</v>
@@ -13440,7 +13440,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>33</v>
@@ -13517,16 +13517,16 @@
         <v>142</v>
       </c>
       <c r="B143" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C143" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C143" s="3" t="s">
-        <v>222</v>
-      </c>
       <c r="D143" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F143" s="3">
         <v>34</v>
@@ -13594,7 +13594,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>33</v>
@@ -13671,16 +13671,16 @@
         <v>144</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F145" s="3">
         <v>21</v>
@@ -13748,16 +13748,16 @@
         <v>145</v>
       </c>
       <c r="B146" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C146" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>226</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F146" s="3">
         <v>24</v>
@@ -13825,10 +13825,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>42</v>
@@ -13902,7 +13902,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>33</v>
@@ -13979,7 +13979,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>33</v>
@@ -14056,13 +14056,13 @@
         <v>149</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>36</v>
@@ -14133,7 +14133,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>33</v>
@@ -14210,7 +14210,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>33</v>
@@ -14287,7 +14287,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>69</v>
@@ -14296,7 +14296,7 @@
         <v>45</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F153" s="3">
         <v>23</v>
@@ -14364,7 +14364,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>33</v>
@@ -14441,7 +14441,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>33</v>
@@ -14518,7 +14518,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>33</v>
@@ -14527,7 +14527,7 @@
         <v>45</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F156" s="3">
         <v>24</v>
@@ -14595,16 +14595,16 @@
         <v>156</v>
       </c>
       <c r="B157" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C157" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>238</v>
       </c>
       <c r="D157" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F157" s="3">
         <v>31</v>
@@ -14672,10 +14672,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>45</v>
@@ -14749,7 +14749,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>33</v>
@@ -14826,7 +14826,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>33</v>
@@ -14903,7 +14903,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>33</v>
@@ -14980,7 +14980,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>33</v>
@@ -15057,10 +15057,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C163" s="3" t="s">
         <v>244</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>245</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>45</v>
@@ -15132,16 +15132,16 @@
         <v>163</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>67</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F164" s="3">
         <v>27</v>
@@ -15209,16 +15209,16 @@
         <v>164</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F165" s="3">
         <v>23</v>
@@ -15286,7 +15286,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>33</v>
@@ -15363,7 +15363,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>33</v>
@@ -15372,7 +15372,7 @@
         <v>45</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F167" s="3">
         <v>20</v>
@@ -15440,7 +15440,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>33</v>
@@ -15515,7 +15515,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>33</v>
@@ -15524,7 +15524,7 @@
         <v>67</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F169" s="3">
         <v>27</v>
@@ -15592,10 +15592,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D170" s="3" t="s">
         <v>57</v>
@@ -15669,7 +15669,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>33</v>
@@ -15744,7 +15744,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>33</v>
@@ -15753,7 +15753,7 @@
         <v>45</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F172" s="3">
         <v>24</v>
@@ -15819,7 +15819,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>33</v>
@@ -15896,7 +15896,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>33</v>
@@ -15973,7 +15973,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>33</v>
@@ -16050,7 +16050,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>33</v>
@@ -16059,7 +16059,7 @@
         <v>42</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F176" s="3">
         <v>27</v>
@@ -16127,13 +16127,13 @@
         <v>176</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C177" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E177" s="3" t="s">
         <v>38</v>
@@ -16204,16 +16204,16 @@
         <v>177</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F178" s="3">
         <v>29</v>
@@ -16281,7 +16281,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C179" s="3" t="s">
         <v>33</v>
@@ -16290,7 +16290,7 @@
         <v>49</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F179" s="3">
         <v>30</v>
@@ -16358,7 +16358,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>33</v>
@@ -16435,10 +16435,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C181" s="3" t="s">
         <v>263</v>
-      </c>
-      <c r="C181" s="3" t="s">
-        <v>264</v>
       </c>
       <c r="D181" s="3" t="s">
         <v>45</v>
@@ -16512,7 +16512,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>33</v>
@@ -16589,13 +16589,13 @@
         <v>182</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C183" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E183" s="3" t="s">
         <v>46</v>
@@ -16666,7 +16666,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>33</v>
@@ -16743,7 +16743,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>33</v>
@@ -16820,7 +16820,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>33</v>
@@ -16897,7 +16897,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C187" s="3" t="s">
         <v>33</v>
@@ -16974,16 +16974,16 @@
         <v>187</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F188" s="3">
         <v>26</v>
@@ -17051,13 +17051,13 @@
         <v>188</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E189" s="3" t="s">
         <v>28</v>
@@ -17128,7 +17128,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>66</v>
@@ -17137,7 +17137,7 @@
         <v>45</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F190" s="3">
         <v>29</v>
@@ -17205,13 +17205,13 @@
         <v>190</v>
       </c>
       <c r="B191" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C191" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="C191" s="3" t="s">
-        <v>276</v>
-      </c>
       <c r="D191" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E191" s="3" t="s">
         <v>53</v>
@@ -17282,7 +17282,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>33</v>
@@ -17291,7 +17291,7 @@
         <v>45</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F192" s="3">
         <v>31</v>
@@ -17359,16 +17359,16 @@
         <v>192</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D193" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F193" s="3">
         <v>37</v>
@@ -17426,7 +17426,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>33</v>
@@ -17435,7 +17435,7 @@
         <v>45</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F194" s="3">
         <v>24</v>
@@ -17503,7 +17503,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>33</v>
@@ -17512,7 +17512,7 @@
         <v>57</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F195" s="3">
         <v>29</v>
@@ -17580,7 +17580,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>33</v>
@@ -17589,7 +17589,7 @@
         <v>45</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F196" s="3">
         <v>26</v>
@@ -17657,7 +17657,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>33</v>
@@ -17666,7 +17666,7 @@
         <v>45</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F197" s="3">
         <v>27</v>
@@ -17734,7 +17734,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>33</v>
@@ -17743,7 +17743,7 @@
         <v>27</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F198" s="3">
         <v>23</v>
@@ -17801,13 +17801,13 @@
         <v>198</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E199" s="3" t="s">
         <v>50</v>
@@ -17878,10 +17878,10 @@
         <v>199</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D200" s="3" t="s">
         <v>45</v>
@@ -17955,7 +17955,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>33</v>
@@ -17964,7 +17964,7 @@
         <v>42</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F201" s="3">
         <v>31</v>
@@ -18032,7 +18032,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>33</v>
@@ -18109,7 +18109,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>33</v>
@@ -18186,7 +18186,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>33</v>
@@ -18195,7 +18195,7 @@
         <v>45</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F204" s="3">
         <v>31</v>
@@ -18261,7 +18261,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>33</v>
@@ -18338,7 +18338,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>33</v>
@@ -18415,7 +18415,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>33</v>
@@ -18492,7 +18492,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>33</v>
@@ -18501,7 +18501,7 @@
         <v>45</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F208" s="3">
         <v>29</v>
@@ -18569,16 +18569,16 @@
         <v>208</v>
       </c>
       <c r="B209" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C209" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="C209" s="3" t="s">
-        <v>295</v>
-      </c>
       <c r="D209" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F209" s="3">
         <v>25</v>
@@ -18646,7 +18646,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>33</v>
@@ -18723,7 +18723,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>33</v>
@@ -18732,7 +18732,7 @@
         <v>57</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F211" s="3">
         <v>22</v>
@@ -18800,16 +18800,16 @@
         <v>211</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D212" s="3" t="s">
         <v>67</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F212" s="3">
         <v>22</v>
@@ -18877,7 +18877,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>33</v>
@@ -18886,7 +18886,7 @@
         <v>45</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F213" s="3">
         <v>20</v>
@@ -18954,7 +18954,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>33</v>
@@ -18963,7 +18963,7 @@
         <v>27</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F214" s="3">
         <v>25</v>
@@ -19021,10 +19021,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D215" s="3" t="s">
         <v>57</v>
@@ -19098,7 +19098,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>33</v>
@@ -19107,7 +19107,7 @@
         <v>45</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F216" s="3">
         <v>31</v>
@@ -19173,7 +19173,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>33</v>
@@ -19182,7 +19182,7 @@
         <v>27</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F217" s="3">
         <v>30</v>
@@ -19240,7 +19240,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C218" s="3" t="s">
         <v>33</v>
@@ -19249,7 +19249,7 @@
         <v>67</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F218" s="3">
         <v>38</v>
@@ -19317,16 +19317,16 @@
         <v>218</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D219" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F219" s="3">
         <v>26</v>
@@ -19394,7 +19394,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>33</v>
@@ -19403,7 +19403,7 @@
         <v>67</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F220" s="3">
         <v>24</v>
@@ -19471,7 +19471,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C221" s="3" t="s">
         <v>33</v>
@@ -19548,7 +19548,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C222" s="3" t="s">
         <v>33</v>
@@ -19623,10 +19623,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D223" s="3" t="s">
         <v>67</v>
@@ -19700,7 +19700,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>33</v>
@@ -19777,13 +19777,13 @@
         <v>224</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E225" s="3" t="s">
         <v>36</v>
@@ -19852,7 +19852,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>33</v>
@@ -19929,7 +19929,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>66</v>
@@ -20006,7 +20006,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>33</v>
@@ -20015,7 +20015,7 @@
         <v>42</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F228" s="3">
         <v>29</v>
@@ -20083,7 +20083,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>33</v>
@@ -20160,7 +20160,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>33</v>
@@ -20169,7 +20169,7 @@
         <v>45</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F230" s="3">
         <v>23</v>
@@ -20237,7 +20237,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>33</v>
@@ -20314,16 +20314,16 @@
         <v>231</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D232" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F232" s="3">
         <v>17</v>
@@ -20391,16 +20391,16 @@
         <v>232</v>
       </c>
       <c r="B233" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C233" s="3" t="s">
         <v>318</v>
-      </c>
-      <c r="C233" s="3" t="s">
-        <v>319</v>
       </c>
       <c r="D233" s="3" t="s">
         <v>67</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F233" s="3">
         <v>27</v>
@@ -20468,13 +20468,13 @@
         <v>233</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E234" s="3" t="s">
         <v>38</v>
@@ -20545,10 +20545,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D235" s="3" t="s">
         <v>45</v>
@@ -20622,7 +20622,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>33</v>
@@ -20699,7 +20699,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C237" s="3" t="s">
         <v>69</v>
@@ -20708,7 +20708,7 @@
         <v>42</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F237" s="3">
         <v>31</v>
@@ -20776,10 +20776,10 @@
         <v>237</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D238" s="3" t="s">
         <v>67</v>
@@ -20853,16 +20853,16 @@
         <v>238</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D239" s="3" t="s">
         <v>67</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F239" s="3">
         <v>24</v>
@@ -20930,7 +20930,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>33</v>
@@ -20939,7 +20939,7 @@
         <v>42</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F240" s="3">
         <v>23</v>
@@ -21005,7 +21005,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C241" s="3" t="s">
         <v>33</v>
@@ -21014,7 +21014,7 @@
         <v>42</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F241" s="3">
         <v>32</v>
@@ -21082,7 +21082,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C242" s="3" t="s">
         <v>33</v>
@@ -21149,7 +21149,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>33</v>
@@ -21158,7 +21158,7 @@
         <v>57</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F243" s="3">
         <v>35</v>
@@ -21226,13 +21226,13 @@
         <v>243</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E244" s="3" t="s">
         <v>46</v>
@@ -21303,7 +21303,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>33</v>
@@ -21380,16 +21380,16 @@
         <v>245</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F246" s="3">
         <v>25</v>
@@ -21455,7 +21455,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>33</v>
@@ -21464,7 +21464,7 @@
         <v>57</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F247" s="3">
         <v>27</v>
@@ -21532,7 +21532,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>33</v>
@@ -21609,7 +21609,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C249" s="3" t="s">
         <v>33</v>
@@ -21618,7 +21618,7 @@
         <v>42</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F249" s="3">
         <v>29</v>
@@ -21686,16 +21686,16 @@
         <v>249</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F250" s="3">
         <v>25</v>
@@ -21763,7 +21763,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C251" s="3" t="s">
         <v>33</v>
@@ -21772,7 +21772,7 @@
         <v>42</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F251" s="3">
         <v>21</v>
@@ -21840,7 +21840,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>33</v>
@@ -21917,7 +21917,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>33</v>
@@ -21994,7 +21994,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>33</v>
@@ -22071,7 +22071,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>33</v>
@@ -22148,16 +22148,16 @@
         <v>255</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D256" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F256" s="3">
         <v>28</v>
@@ -22225,13 +22225,13 @@
         <v>256</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E257" s="3" t="s">
         <v>43</v>
@@ -22302,13 +22302,13 @@
         <v>257</v>
       </c>
       <c r="B258" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C258" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="C258" s="3" t="s">
-        <v>345</v>
-      </c>
       <c r="D258" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E258" s="3" t="s">
         <v>40</v>
@@ -22379,13 +22379,13 @@
         <v>258</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E259" s="3" t="s">
         <v>31</v>
@@ -22456,7 +22456,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>33</v>
@@ -22465,7 +22465,7 @@
         <v>42</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F260" s="3">
         <v>32</v>
@@ -22533,13 +22533,13 @@
         <v>260</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E261" s="3" t="s">
         <v>38</v>
@@ -22610,7 +22610,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>33</v>
@@ -22687,7 +22687,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>33</v>
@@ -22696,7 +22696,7 @@
         <v>45</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F263" s="3">
         <v>23</v>
@@ -22762,10 +22762,10 @@
         <v>263</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D264" s="3" t="s">
         <v>42</v>
@@ -22839,16 +22839,16 @@
         <v>264</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D265" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E265" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F265" s="3">
         <v>22</v>
@@ -22916,10 +22916,10 @@
         <v>265</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D266" s="3" t="s">
         <v>45</v>
@@ -22991,16 +22991,16 @@
         <v>266</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D267" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F267" s="3">
         <v>33</v>
@@ -23068,10 +23068,10 @@
         <v>267</v>
       </c>
       <c r="B268" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C268" s="3" t="s">
         <v>355</v>
-      </c>
-      <c r="C268" s="3" t="s">
-        <v>356</v>
       </c>
       <c r="D268" s="3" t="s">
         <v>57</v>
@@ -23145,13 +23145,13 @@
         <v>268</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E269" s="3" t="s">
         <v>34</v>
@@ -23222,7 +23222,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>33</v>
@@ -23231,7 +23231,7 @@
         <v>45</v>
       </c>
       <c r="E270" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F270" s="3">
         <v>25</v>
@@ -23297,16 +23297,16 @@
         <v>270</v>
       </c>
       <c r="B271" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C271" s="3" t="s">
         <v>359</v>
-      </c>
-      <c r="C271" s="3" t="s">
-        <v>360</v>
       </c>
       <c r="D271" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F271" s="3">
         <v>24</v>
@@ -23372,7 +23372,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>33</v>
@@ -23381,7 +23381,7 @@
         <v>67</v>
       </c>
       <c r="E272" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F272" s="3">
         <v>39</v>
@@ -23449,7 +23449,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>33</v>
@@ -23526,7 +23526,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>33</v>
@@ -23535,7 +23535,7 @@
         <v>67</v>
       </c>
       <c r="E274" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F274" s="3">
         <v>28</v>
@@ -23603,7 +23603,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>33</v>
@@ -23612,7 +23612,7 @@
         <v>45</v>
       </c>
       <c r="E275" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F275" s="3">
         <v>25</v>
@@ -23680,7 +23680,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>33</v>
@@ -23689,7 +23689,7 @@
         <v>49</v>
       </c>
       <c r="E276" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F276" s="3">
         <v>26</v>
@@ -23757,7 +23757,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>33</v>
@@ -23834,7 +23834,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>48</v>
@@ -23843,7 +23843,7 @@
         <v>57</v>
       </c>
       <c r="E278" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F278" s="3">
         <v>29</v>
@@ -23911,16 +23911,16 @@
         <v>278</v>
       </c>
       <c r="B279" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C279" s="3" t="s">
         <v>368</v>
-      </c>
-      <c r="C279" s="3" t="s">
-        <v>369</v>
       </c>
       <c r="D279" s="3" t="s">
         <v>67</v>
       </c>
       <c r="E279" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F279" s="3">
         <v>19</v>
@@ -23988,16 +23988,16 @@
         <v>279</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D280" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E280" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F280" s="3">
         <v>26</v>
@@ -24065,7 +24065,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>33</v>
@@ -24074,7 +24074,7 @@
         <v>42</v>
       </c>
       <c r="E281" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F281" s="3">
         <v>25</v>
@@ -24142,7 +24142,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C282" s="3" t="s">
         <v>33</v>
@@ -24217,7 +24217,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>66</v>
@@ -24294,16 +24294,16 @@
         <v>283</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D284" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E284" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F284" s="3">
         <v>28</v>
@@ -24371,16 +24371,16 @@
         <v>284</v>
       </c>
       <c r="B285" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C285" s="3" t="s">
         <v>374</v>
-      </c>
-      <c r="C285" s="3" t="s">
-        <v>375</v>
       </c>
       <c r="D285" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E285" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F285" s="3">
         <v>24</v>
@@ -24448,16 +24448,16 @@
         <v>285</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E286" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F286" s="3">
         <v>27</v>
@@ -24525,16 +24525,16 @@
         <v>286</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D287" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E287" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F287" s="3">
         <v>27</v>
@@ -24602,7 +24602,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>33</v>
@@ -24679,7 +24679,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C289" s="3" t="s">
         <v>69</v>
@@ -24756,7 +24756,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>33</v>
@@ -24833,7 +24833,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>33</v>
@@ -24842,7 +24842,7 @@
         <v>45</v>
       </c>
       <c r="E291" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F291" s="3">
         <v>30</v>
@@ -24910,10 +24910,10 @@
         <v>291</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D292" s="3" t="s">
         <v>57</v>
@@ -24987,16 +24987,16 @@
         <v>292</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D293" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E293" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F293" s="3">
         <v>23</v>
@@ -25064,10 +25064,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C294" s="3" t="s">
         <v>384</v>
-      </c>
-      <c r="C294" s="3" t="s">
-        <v>385</v>
       </c>
       <c r="D294" s="3" t="s">
         <v>45</v>
@@ -25141,13 +25141,13 @@
         <v>294</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E295" s="3" t="s">
         <v>40</v>
@@ -25216,7 +25216,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>33</v>
@@ -25225,7 +25225,7 @@
         <v>27</v>
       </c>
       <c r="E296" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F296" s="3">
         <v>34</v>
@@ -25283,7 +25283,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>33</v>
@@ -25292,7 +25292,7 @@
         <v>42</v>
       </c>
       <c r="E297" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F297" s="3">
         <v>23</v>
@@ -25360,16 +25360,16 @@
         <v>297</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C298" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E298" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F298" s="3">
         <v>27</v>
@@ -25437,7 +25437,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C299" s="3" t="s">
         <v>33</v>
@@ -25512,10 +25512,10 @@
         <v>299</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D300" s="3" t="s">
         <v>45</v>
@@ -25589,10 +25589,10 @@
         <v>300</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D301" s="3" t="s">
         <v>45</v>
@@ -25664,7 +25664,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C302" s="3" t="s">
         <v>33</v>
@@ -25741,10 +25741,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D303" s="3" t="s">
         <v>45</v>
@@ -25818,10 +25818,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D304" s="3" t="s">
         <v>67</v>
@@ -25895,10 +25895,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D305" s="3" t="s">
         <v>67</v>
@@ -25972,7 +25972,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>52</v>
@@ -25981,7 +25981,7 @@
         <v>42</v>
       </c>
       <c r="E306" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F306" s="3">
         <v>27</v>
@@ -26047,13 +26047,13 @@
         <v>306</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C307" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E307" s="3" t="s">
         <v>59</v>
@@ -26124,13 +26124,13 @@
         <v>307</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E308" s="3" t="s">
         <v>40</v>
@@ -26201,7 +26201,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>33</v>
@@ -26210,7 +26210,7 @@
         <v>67</v>
       </c>
       <c r="E309" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F309" s="3">
         <v>28</v>
@@ -26278,7 +26278,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>66</v>
@@ -26355,16 +26355,16 @@
         <v>310</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D311" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E311" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F311" s="3">
         <v>26</v>
@@ -26432,16 +26432,16 @@
         <v>311</v>
       </c>
       <c r="B312" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C312" s="3" t="s">
         <v>403</v>
-      </c>
-      <c r="C312" s="3" t="s">
-        <v>404</v>
       </c>
       <c r="D312" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E312" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F312" s="3">
         <v>29</v>
@@ -26509,10 +26509,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D313" s="3" t="s">
         <v>49</v>
@@ -26586,7 +26586,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>69</v>
@@ -26595,7 +26595,7 @@
         <v>57</v>
       </c>
       <c r="E314" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F314" s="3">
         <v>33</v>
@@ -26663,7 +26663,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>33</v>
@@ -26738,10 +26738,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D316" s="3" t="s">
         <v>45</v>
@@ -26813,7 +26813,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C317" s="3" t="s">
         <v>52</v>
@@ -26822,7 +26822,7 @@
         <v>49</v>
       </c>
       <c r="E317" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F317" s="3">
         <v>28</v>
@@ -26890,7 +26890,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>33</v>
@@ -26967,7 +26967,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>26</v>
@@ -27044,7 +27044,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>66</v>
@@ -27053,7 +27053,7 @@
         <v>57</v>
       </c>
       <c r="E320" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F320" s="3">
         <v>29</v>
@@ -27121,7 +27121,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>33</v>
@@ -27130,7 +27130,7 @@
         <v>67</v>
       </c>
       <c r="E321" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F321" s="3">
         <v>26</v>
@@ -27198,10 +27198,10 @@
         <v>321</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D322" s="3" t="s">
         <v>57</v>
@@ -27275,7 +27275,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>33</v>
@@ -27352,16 +27352,16 @@
         <v>323</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D324" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E324" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F324" s="3">
         <v>25</v>
@@ -27429,7 +27429,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>33</v>
@@ -27506,7 +27506,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>33</v>
@@ -27515,7 +27515,7 @@
         <v>67</v>
       </c>
       <c r="E326" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F326" s="3">
         <v>23</v>
@@ -27583,7 +27583,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>33</v>
@@ -27592,7 +27592,7 @@
         <v>42</v>
       </c>
       <c r="E327" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F327" s="3">
         <v>32</v>
@@ -27660,13 +27660,13 @@
         <v>327</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D328" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E328" s="3" t="s">
         <v>50</v>
@@ -27737,13 +27737,13 @@
         <v>328</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C329" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D329" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E329" s="3" t="s">
         <v>53</v>
@@ -27814,16 +27814,16 @@
         <v>329</v>
       </c>
       <c r="B330" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C330" s="3" t="s">
         <v>422</v>
-      </c>
-      <c r="C330" s="3" t="s">
-        <v>423</v>
       </c>
       <c r="D330" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E330" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F330" s="3">
         <v>24</v>
@@ -27891,7 +27891,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C331" s="3" t="s">
         <v>33</v>
@@ -27966,16 +27966,16 @@
         <v>331</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D332" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E332" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F332" s="3">
         <v>32</v>
@@ -28043,7 +28043,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>33</v>
@@ -28120,7 +28120,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>33</v>
@@ -28129,7 +28129,7 @@
         <v>45</v>
       </c>
       <c r="E334" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F334" s="3">
         <v>23</v>
@@ -28195,7 +28195,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C335" s="3" t="s">
         <v>33</v>
@@ -28204,7 +28204,7 @@
         <v>45</v>
       </c>
       <c r="E335" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F335" s="3">
         <v>31</v>
@@ -28270,7 +28270,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C336" s="3" t="s">
         <v>52</v>
@@ -28347,13 +28347,13 @@
         <v>336</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C337" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D337" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E337" s="3" t="s">
         <v>28</v>
@@ -28424,7 +28424,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C338" s="3" t="s">
         <v>33</v>
@@ -28499,10 +28499,10 @@
         <v>338</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D339" s="3" t="s">
         <v>45</v>
@@ -28576,7 +28576,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C340" s="3" t="s">
         <v>48</v>
@@ -28585,7 +28585,7 @@
         <v>27</v>
       </c>
       <c r="E340" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F340" s="3">
         <v>31</v>
@@ -28643,7 +28643,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C341" s="3" t="s">
         <v>33</v>
@@ -28710,7 +28710,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C342" s="3" t="s">
         <v>33</v>
@@ -28785,10 +28785,10 @@
         <v>342</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D343" s="3" t="s">
         <v>57</v>
@@ -28862,13 +28862,13 @@
         <v>343</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D344" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E344" s="3" t="s">
         <v>46</v>
@@ -28939,16 +28939,16 @@
         <v>344</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D345" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E345" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F345" s="3">
         <v>27</v>
@@ -29016,16 +29016,16 @@
         <v>345</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D346" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E346" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F346" s="3">
         <v>20</v>
@@ -29093,7 +29093,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>52</v>
@@ -29102,7 +29102,7 @@
         <v>67</v>
       </c>
       <c r="E347" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F347" s="3">
         <v>27</v>
@@ -29170,7 +29170,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>33</v>
@@ -29247,16 +29247,16 @@
         <v>348</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D349" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E349" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F349" s="3">
         <v>24</v>
@@ -29324,7 +29324,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C350" s="3" t="s">
         <v>33</v>
@@ -29399,7 +29399,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>33</v>
@@ -29474,7 +29474,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C352" s="3" t="s">
         <v>33</v>
@@ -29483,7 +29483,7 @@
         <v>45</v>
       </c>
       <c r="E352" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F352" s="3">
         <v>33</v>
@@ -29551,16 +29551,16 @@
         <v>352</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D353" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E353" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F353" s="3">
         <v>25</v>
@@ -29628,7 +29628,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>33</v>
@@ -29637,7 +29637,7 @@
         <v>45</v>
       </c>
       <c r="E354" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F354" s="3">
         <v>32</v>
@@ -29705,7 +29705,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C355" s="3" t="s">
         <v>33</v>
@@ -29782,7 +29782,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C356" s="3" t="s">
         <v>33</v>
@@ -29859,7 +29859,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C357" s="3" t="s">
         <v>33</v>
@@ -29936,16 +29936,16 @@
         <v>357</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D358" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E358" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F358" s="3">
         <v>28</v>
@@ -30011,7 +30011,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C359" s="3" t="s">
         <v>33</v>
@@ -30020,7 +30020,7 @@
         <v>42</v>
       </c>
       <c r="E359" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F359" s="3">
         <v>30</v>
@@ -30088,13 +30088,13 @@
         <v>359</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D360" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E360" s="3" t="s">
         <v>43</v>
@@ -30165,7 +30165,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C361" s="3" t="s">
         <v>33</v>
@@ -30242,13 +30242,13 @@
         <v>361</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D362" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E362" s="3" t="s">
         <v>59</v>
@@ -30319,16 +30319,16 @@
         <v>362</v>
       </c>
       <c r="B363" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C363" s="3" t="s">
         <v>456</v>
-      </c>
-      <c r="C363" s="3" t="s">
-        <v>457</v>
       </c>
       <c r="D363" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E363" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F363" s="3">
         <v>26</v>
@@ -30394,10 +30394,10 @@
         <v>363</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D364" s="3" t="s">
         <v>57</v>
@@ -30471,10 +30471,10 @@
         <v>364</v>
       </c>
       <c r="B365" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="C365" s="3" t="s">
         <v>459</v>
-      </c>
-      <c r="C365" s="3" t="s">
-        <v>460</v>
       </c>
       <c r="D365" s="3" t="s">
         <v>42</v>
@@ -30546,16 +30546,16 @@
         <v>365</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C366" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D366" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E366" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F366" s="3">
         <v>26</v>
@@ -30623,7 +30623,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>33</v>
@@ -30632,7 +30632,7 @@
         <v>42</v>
       </c>
       <c r="E367" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F367" s="3">
         <v>27</v>
@@ -30700,7 +30700,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C368" s="3" t="s">
         <v>33</v>
@@ -30709,7 +30709,7 @@
         <v>57</v>
       </c>
       <c r="E368" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F368" s="3">
         <v>31</v>
@@ -30777,16 +30777,16 @@
         <v>368</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D369" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E369" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F369" s="3">
         <v>27</v>
@@ -30844,7 +30844,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C370" s="3" t="s">
         <v>69</v>
@@ -30919,7 +30919,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>66</v>
@@ -30928,7 +30928,7 @@
         <v>45</v>
       </c>
       <c r="E371" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F371" s="3">
         <v>20</v>
@@ -30996,7 +30996,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>33</v>
@@ -31073,7 +31073,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>66</v>
@@ -31150,7 +31150,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>33</v>
@@ -31159,7 +31159,7 @@
         <v>45</v>
       </c>
       <c r="E374" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F374" s="3">
         <v>22</v>
@@ -31227,7 +31227,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>33</v>
@@ -31236,7 +31236,7 @@
         <v>45</v>
       </c>
       <c r="E375" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F375" s="3">
         <v>30</v>
@@ -31302,7 +31302,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C376" s="3" t="s">
         <v>33</v>
@@ -31311,7 +31311,7 @@
         <v>27</v>
       </c>
       <c r="E376" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F376" s="3">
         <v>23</v>
@@ -31369,7 +31369,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>66</v>
@@ -31378,7 +31378,7 @@
         <v>27</v>
       </c>
       <c r="E377" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F377" s="3">
         <v>28</v>
@@ -31436,7 +31436,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C378" s="3" t="s">
         <v>33</v>
@@ -31445,7 +31445,7 @@
         <v>45</v>
       </c>
       <c r="E378" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F378" s="3">
         <v>28</v>
@@ -31511,10 +31511,10 @@
         <v>378</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D379" s="3" t="s">
         <v>67</v>
@@ -31588,10 +31588,10 @@
         <v>379</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D380" s="3" t="s">
         <v>57</v>
@@ -31665,16 +31665,16 @@
         <v>380</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C381" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D381" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E381" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F381" s="3">
         <v>30</v>
@@ -31740,10 +31740,10 @@
         <v>381</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C382" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D382" s="3" t="s">
         <v>42</v>
@@ -31817,16 +31817,16 @@
         <v>382</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C383" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D383" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E383" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F383" s="3">
         <v>21</v>
@@ -31880,13 +31880,13 @@
         <v>383</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C384" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D384" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E384" s="3" t="s">
         <v>50</v>
@@ -31957,7 +31957,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>48</v>
@@ -31966,7 +31966,7 @@
         <v>45</v>
       </c>
       <c r="E385" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F385" s="3">
         <v>25</v>
@@ -32032,7 +32032,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>33</v>
@@ -32041,7 +32041,7 @@
         <v>45</v>
       </c>
       <c r="E386" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F386" s="3">
         <v>20</v>
@@ -32109,7 +32109,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>33</v>
@@ -32186,7 +32186,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>69</v>
@@ -32263,7 +32263,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>33</v>
@@ -32340,10 +32340,10 @@
         <v>389</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C390" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D390" s="3" t="s">
         <v>27</v>
@@ -32407,10 +32407,10 @@
         <v>390</v>
       </c>
       <c r="B391" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="C391" s="3" t="s">
         <v>485</v>
-      </c>
-      <c r="C391" s="3" t="s">
-        <v>486</v>
       </c>
       <c r="D391" s="3" t="s">
         <v>42</v>
@@ -32484,13 +32484,13 @@
         <v>391</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D392" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E392" s="3" t="s">
         <v>34</v>
@@ -32561,13 +32561,13 @@
         <v>392</v>
       </c>
       <c r="B393" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="C393" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="C393" s="3" t="s">
-        <v>489</v>
-      </c>
       <c r="D393" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E393" s="3" t="s">
         <v>31</v>
@@ -32638,10 +32638,10 @@
         <v>393</v>
       </c>
       <c r="B394" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C394" s="3" t="s">
         <v>490</v>
-      </c>
-      <c r="C394" s="3" t="s">
-        <v>491</v>
       </c>
       <c r="D394" s="3" t="s">
         <v>45</v>
@@ -32715,13 +32715,13 @@
         <v>394</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D395" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E395" s="3" t="s">
         <v>43</v>
@@ -32792,7 +32792,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>33</v>
@@ -32801,7 +32801,7 @@
         <v>67</v>
       </c>
       <c r="E396" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F396" s="3">
         <v>27</v>
@@ -32869,10 +32869,10 @@
         <v>396</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C397" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D397" s="3" t="s">
         <v>45</v>
@@ -32936,7 +32936,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C398" s="3" t="s">
         <v>33</v>
@@ -33013,7 +33013,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C399" s="3" t="s">
         <v>33</v>
@@ -33022,7 +33022,7 @@
         <v>45</v>
       </c>
       <c r="E399" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F399" s="3">
         <v>30</v>
@@ -33088,7 +33088,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>33</v>
@@ -33097,7 +33097,7 @@
         <v>42</v>
       </c>
       <c r="E400" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F400" s="3">
         <v>21</v>
@@ -33165,7 +33165,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>33</v>
@@ -33174,7 +33174,7 @@
         <v>45</v>
       </c>
       <c r="E401" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F401" s="3">
         <v>30</v>
@@ -33242,13 +33242,13 @@
         <v>401</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D402" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E402" s="3" t="s">
         <v>43</v>
@@ -33319,7 +33319,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C403" s="3" t="s">
         <v>33</v>
@@ -33328,7 +33328,7 @@
         <v>45</v>
       </c>
       <c r="E403" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F403" s="3">
         <v>27</v>
@@ -33394,7 +33394,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C404" s="3" t="s">
         <v>33</v>
@@ -33471,16 +33471,16 @@
         <v>404</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C405" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D405" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E405" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F405" s="3">
         <v>20</v>
@@ -33548,7 +33548,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C406" s="3" t="s">
         <v>33</v>
@@ -33625,13 +33625,13 @@
         <v>406</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C407" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D407" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E407" s="3" t="s">
         <v>36</v>
@@ -33702,7 +33702,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>33</v>
@@ -33711,7 +33711,7 @@
         <v>67</v>
       </c>
       <c r="E408" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F408" s="3">
         <v>20</v>
@@ -33777,7 +33777,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C409" s="3" t="s">
         <v>26</v>
@@ -33854,7 +33854,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C410" s="3" t="s">
         <v>33</v>
@@ -33863,7 +33863,7 @@
         <v>67</v>
       </c>
       <c r="E410" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F410" s="3">
         <v>26</v>
@@ -33931,13 +33931,13 @@
         <v>410</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C411" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D411" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E411" s="3" t="s">
         <v>31</v>
@@ -34008,10 +34008,10 @@
         <v>411</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C412" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D412" s="3" t="s">
         <v>45</v>
@@ -34075,10 +34075,10 @@
         <v>412</v>
       </c>
       <c r="B413" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="C413" s="3" t="s">
         <v>509</v>
-      </c>
-      <c r="C413" s="3" t="s">
-        <v>510</v>
       </c>
       <c r="D413" s="3" t="s">
         <v>57</v>
@@ -34152,16 +34152,16 @@
         <v>413</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C414" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D414" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E414" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F414" s="3">
         <v>22</v>
@@ -34229,16 +34229,16 @@
         <v>414</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C415" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D415" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E415" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F415" s="3">
         <v>31</v>
@@ -34306,13 +34306,13 @@
         <v>415</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D416" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E416" s="3" t="s">
         <v>34</v>
@@ -34383,16 +34383,16 @@
         <v>416</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D417" s="3" t="s">
         <v>67</v>
       </c>
       <c r="E417" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F417" s="3">
         <v>23</v>
@@ -34460,16 +34460,16 @@
         <v>417</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C418" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D418" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E418" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F418" s="3">
         <v>30</v>
@@ -34527,7 +34527,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C419" s="3" t="s">
         <v>66</v>
@@ -34536,7 +34536,7 @@
         <v>42</v>
       </c>
       <c r="E419" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F419" s="3">
         <v>28</v>
@@ -34604,7 +34604,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>33</v>
@@ -34681,10 +34681,10 @@
         <v>420</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C421" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D421" s="3" t="s">
         <v>45</v>
@@ -34758,16 +34758,16 @@
         <v>421</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C422" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D422" s="3" t="s">
         <v>67</v>
       </c>
       <c r="E422" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F422" s="3">
         <v>26</v>
@@ -34835,13 +34835,13 @@
         <v>422</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C423" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D423" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E423" s="3" t="s">
         <v>46</v>
@@ -34912,16 +34912,16 @@
         <v>423</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C424" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D424" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E424" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F424" s="3">
         <v>26</v>
@@ -34987,7 +34987,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C425" s="3" t="s">
         <v>33</v>
@@ -34996,7 +34996,7 @@
         <v>45</v>
       </c>
       <c r="E425" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F425" s="3">
         <v>29</v>
@@ -35062,7 +35062,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>33</v>
@@ -35071,7 +35071,7 @@
         <v>27</v>
       </c>
       <c r="E426" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F426" s="3">
         <v>24</v>
@@ -35129,13 +35129,13 @@
         <v>426</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D427" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E427" s="3" t="s">
         <v>36</v>
@@ -35206,16 +35206,16 @@
         <v>427</v>
       </c>
       <c r="B428" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="C428" s="3" t="s">
         <v>523</v>
-      </c>
-      <c r="C428" s="3" t="s">
-        <v>524</v>
       </c>
       <c r="D428" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E428" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F428" s="3">
         <v>31</v>
@@ -35273,7 +35273,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>33</v>
@@ -35350,7 +35350,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C430" s="3" t="s">
         <v>33</v>
@@ -35359,7 +35359,7 @@
         <v>49</v>
       </c>
       <c r="E430" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F430" s="3">
         <v>26</v>
@@ -35425,16 +35425,16 @@
         <v>430</v>
       </c>
       <c r="B431" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="C431" s="3" t="s">
         <v>488</v>
-      </c>
-      <c r="C431" s="3" t="s">
-        <v>489</v>
       </c>
       <c r="D431" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E431" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F431" s="3">
         <v>27</v>
@@ -35502,7 +35502,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C432" s="3" t="s">
         <v>33</v>
@@ -35579,7 +35579,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>33</v>
@@ -35654,7 +35654,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C434" s="3" t="s">
         <v>33</v>
@@ -35663,7 +35663,7 @@
         <v>42</v>
       </c>
       <c r="E434" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F434" s="3">
         <v>31</v>
@@ -35721,13 +35721,13 @@
         <v>434</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D435" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E435" s="3" t="s">
         <v>43</v>
@@ -35788,7 +35788,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>33</v>
@@ -35797,7 +35797,7 @@
         <v>67</v>
       </c>
       <c r="E436" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F436" s="3">
         <v>29</v>
@@ -35865,7 +35865,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>33</v>
@@ -35874,7 +35874,7 @@
         <v>67</v>
       </c>
       <c r="E437" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F437" s="3">
         <v>21</v>
@@ -35942,7 +35942,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C438" s="3" t="s">
         <v>33</v>
@@ -36019,7 +36019,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>52</v>
@@ -36028,7 +36028,7 @@
         <v>57</v>
       </c>
       <c r="E439" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F439" s="3">
         <v>22</v>
@@ -36096,16 +36096,16 @@
         <v>439</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D440" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E440" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F440" s="3">
         <v>22</v>
@@ -36163,7 +36163,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>33</v>
@@ -36172,7 +36172,7 @@
         <v>67</v>
       </c>
       <c r="E441" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F441" s="3">
         <v>24</v>
@@ -36240,7 +36240,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>33</v>
@@ -36317,7 +36317,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C443" s="3" t="s">
         <v>66</v>
@@ -36326,7 +36326,7 @@
         <v>42</v>
       </c>
       <c r="E443" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F443" s="3">
         <v>34</v>
@@ -36384,7 +36384,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C444" s="3" t="s">
         <v>33</v>
@@ -36393,7 +36393,7 @@
         <v>45</v>
       </c>
       <c r="E444" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F444" s="3">
         <v>19</v>
@@ -36461,7 +36461,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>33</v>
@@ -36470,7 +36470,7 @@
         <v>27</v>
       </c>
       <c r="E445" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F445" s="3">
         <v>26</v>
@@ -36528,16 +36528,16 @@
         <v>445</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C446" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D446" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E446" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F446" s="3">
         <v>31</v>
@@ -36605,13 +36605,13 @@
         <v>446</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C447" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D447" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E447" s="3" t="s">
         <v>40</v>
@@ -36680,16 +36680,16 @@
         <v>447</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C448" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D448" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E448" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F448" s="3">
         <v>20</v>
@@ -36757,7 +36757,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C449" s="3" t="s">
         <v>33</v>
@@ -36824,7 +36824,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>69</v>
@@ -36833,7 +36833,7 @@
         <v>45</v>
       </c>
       <c r="E450" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F450" s="3">
         <v>29</v>
@@ -36899,7 +36899,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>33</v>
@@ -36966,7 +36966,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>33</v>
@@ -37043,7 +37043,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>66</v>
@@ -37052,7 +37052,7 @@
         <v>57</v>
       </c>
       <c r="E453" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F453" s="3">
         <v>29</v>
@@ -37120,13 +37120,13 @@
         <v>453</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C454" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D454" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E454" s="3" t="s">
         <v>40</v>
@@ -37197,13 +37197,13 @@
         <v>454</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D455" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E455" s="3" t="s">
         <v>31</v>
@@ -37272,7 +37272,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>33</v>
@@ -37339,13 +37339,13 @@
         <v>456</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D457" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E457" s="3" t="s">
         <v>59</v>
@@ -37416,7 +37416,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C458" s="3" t="s">
         <v>33</v>
@@ -37493,16 +37493,16 @@
         <v>458</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C459" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D459" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E459" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F459" s="3">
         <v>40</v>
@@ -37570,7 +37570,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>33</v>
@@ -37647,16 +37647,16 @@
         <v>460</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C461" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D461" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E461" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F461" s="3">
         <v>23</v>
@@ -37722,7 +37722,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>33</v>
@@ -37789,7 +37789,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>33</v>
@@ -37798,7 +37798,7 @@
         <v>45</v>
       </c>
       <c r="E463" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F463" s="3">
         <v>19</v>
@@ -37866,7 +37866,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C464" s="3" t="s">
         <v>69</v>
@@ -37875,7 +37875,7 @@
         <v>42</v>
       </c>
       <c r="E464" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F464" s="3">
         <v>25</v>
@@ -37933,13 +37933,13 @@
         <v>464</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C465" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D465" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E465" s="3" t="s">
         <v>36</v>
@@ -38010,7 +38010,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C466" s="3" t="s">
         <v>33</v>
@@ -38019,7 +38019,7 @@
         <v>45</v>
       </c>
       <c r="E466" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F466" s="3">
         <v>20</v>
@@ -38085,7 +38085,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C467" s="3" t="s">
         <v>33</v>
@@ -38094,7 +38094,7 @@
         <v>45</v>
       </c>
       <c r="E467" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F467" s="3">
         <v>29</v>
@@ -38160,7 +38160,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C468" s="3" t="s">
         <v>33</v>
@@ -38169,7 +38169,7 @@
         <v>57</v>
       </c>
       <c r="E468" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F468" s="3">
         <v>20</v>
@@ -38221,7 +38221,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>33</v>
@@ -38230,7 +38230,7 @@
         <v>42</v>
       </c>
       <c r="E469" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F469" s="3">
         <v>21</v>
@@ -38296,13 +38296,13 @@
         <v>469</v>
       </c>
       <c r="B470" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="C470" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="C470" s="3" t="s">
-        <v>565</v>
-      </c>
       <c r="D470" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E470" s="3" t="s">
         <v>28</v>
@@ -38371,7 +38371,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>33</v>
@@ -38446,7 +38446,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>33</v>
@@ -38521,7 +38521,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C473" s="3" t="s">
         <v>33</v>
@@ -38598,10 +38598,10 @@
         <v>473</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C474" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D474" s="3" t="s">
         <v>67</v>
@@ -38675,13 +38675,13 @@
         <v>474</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C475" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D475" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E475" s="3" t="s">
         <v>46</v>
@@ -38752,10 +38752,10 @@
         <v>475</v>
       </c>
       <c r="B476" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="C476" s="3" t="s">
         <v>571</v>
-      </c>
-      <c r="C476" s="3" t="s">
-        <v>572</v>
       </c>
       <c r="D476" s="3" t="s">
         <v>67</v>
@@ -38829,16 +38829,16 @@
         <v>476</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C477" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D477" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E477" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F477" s="3">
         <v>24</v>
@@ -38906,10 +38906,10 @@
         <v>477</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C478" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D478" s="3" t="s">
         <v>42</v>
@@ -38981,7 +38981,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>33</v>
@@ -39056,13 +39056,13 @@
         <v>479</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C480" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D480" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E480" s="3" t="s">
         <v>46</v>
@@ -39123,7 +39123,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>33</v>
@@ -39132,7 +39132,7 @@
         <v>27</v>
       </c>
       <c r="E481" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F481" s="3">
         <v>41</v>
@@ -39190,10 +39190,10 @@
         <v>481</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C482" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D482" s="3" t="s">
         <v>45</v>
@@ -39265,16 +39265,16 @@
         <v>482</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C483" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D483" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E483" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F483" s="3">
         <v>31</v>
@@ -39332,16 +39332,16 @@
         <v>483</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C484" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D484" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E484" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F484" s="3">
         <v>23</v>
@@ -39399,7 +39399,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>66</v>
@@ -39466,7 +39466,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C486" s="3" t="s">
         <v>33</v>
@@ -39475,7 +39475,7 @@
         <v>49</v>
       </c>
       <c r="E486" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F486" s="3">
         <v>28</v>
@@ -39533,7 +39533,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C487" s="3" t="s">
         <v>33</v>
@@ -39600,7 +39600,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C488" s="3" t="s">
         <v>33</v>
@@ -39677,7 +39677,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C489" s="3" t="s">
         <v>66</v>
@@ -39686,7 +39686,7 @@
         <v>67</v>
       </c>
       <c r="E489" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F489" s="3">
         <v>31</v>
@@ -39754,7 +39754,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C490" s="3" t="s">
         <v>52</v>
@@ -39831,7 +39831,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C491" s="3" t="s">
         <v>33</v>
@@ -39840,7 +39840,7 @@
         <v>45</v>
       </c>
       <c r="E491" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F491" s="3">
         <v>20</v>
@@ -39898,7 +39898,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C492" s="3" t="s">
         <v>33</v>
@@ -39975,7 +39975,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C493" s="3" t="s">
         <v>33</v>
@@ -39984,7 +39984,7 @@
         <v>57</v>
       </c>
       <c r="E493" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F493" s="3">
         <v>24</v>
@@ -40052,16 +40052,16 @@
         <v>493</v>
       </c>
       <c r="B494" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="C494" s="3" t="s">
         <v>590</v>
-      </c>
-      <c r="C494" s="3" t="s">
-        <v>591</v>
       </c>
       <c r="D494" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E494" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F494" s="3">
         <v>20</v>
@@ -40127,13 +40127,13 @@
         <v>494</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C495" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D495" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E495" s="3" t="s">
         <v>59</v>
@@ -40194,7 +40194,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C496" s="3" t="s">
         <v>33</v>
@@ -40203,7 +40203,7 @@
         <v>45</v>
       </c>
       <c r="E496" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F496" s="3">
         <v>22</v>
@@ -40269,13 +40269,13 @@
         <v>496</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C497" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D497" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E497" s="3" t="s">
         <v>28</v>
@@ -40346,7 +40346,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C498" s="3" t="s">
         <v>33</v>
@@ -40423,13 +40423,13 @@
         <v>498</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C499" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D499" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E499" s="3" t="s">
         <v>28</v>
@@ -40498,7 +40498,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C500" s="3" t="s">
         <v>33</v>
